--- a/Métriques discriminantes/Tableau métriques/moyenne/2023_2024/Stats Bomb/moyenne_metriques.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2023_2024/Stats Bomb/moyenne_metriques.xlsx
@@ -521,19 +521,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.23928866</v>
+        <v>11.23928826</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.746429596</v>
+        <v>-3.746429284666667</v>
       </c>
       <c r="D3" t="n">
         <v>400</v>
       </c>
       <c r="E3" t="n">
-        <v>3.839227913072611</v>
+        <v>3.839228663550966</v>
       </c>
       <c r="F3" t="n">
-        <v>10.2216630662969</v>
+        <v>10.22166257731972</v>
       </c>
       <c r="G3" t="n">
         <v>7.3203993</v>
@@ -542,10 +542,10 @@
         <v>-21.283533</v>
       </c>
       <c r="I3" t="n">
-        <v>17.25907</v>
+        <v>17.259071</v>
       </c>
       <c r="J3" t="n">
-        <v>12.890854</v>
+        <v>12.890853</v>
       </c>
     </row>
     <row r="4">
@@ -623,19 +623,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2903547120046037</v>
+        <v>0.290354712632021</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.09859024704548351</v>
+        <v>-0.09859024641806619</v>
       </c>
       <c r="D6" t="n">
         <v>394.51</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1027199414122869</v>
+        <v>0.1027199426631468</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2689911195060819</v>
+        <v>0.2689911182820033</v>
       </c>
       <c r="G6" t="n">
         <v>0.1926420879991431</v>
@@ -644,7 +644,7 @@
         <v>-0.560092958180528</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4541860379670796</v>
+        <v>0.4541860411041661</v>
       </c>
       <c r="J6" t="n">
         <v>0.3392329372857746</v>
@@ -657,19 +657,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2416000748686141</v>
+        <v>0.2416000754960314</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.08209551018581053</v>
+        <v>-0.08209550997667144</v>
       </c>
       <c r="D7" t="n">
         <v>394.29</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1333530880297139</v>
+        <v>0.1333530891587068</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2750881798979004</v>
+        <v>0.2750881791952941</v>
       </c>
       <c r="G7" t="n">
         <v>0.06893156312013927</v>
@@ -678,7 +678,7 @@
         <v>-0.5374653347228703</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4335676196374391</v>
+        <v>0.4335676227745257</v>
       </c>
       <c r="J7" t="n">
         <v>0.4217066215841394</v>
@@ -796,7 +796,7 @@
         <v>-0.1284559023603747</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.06466541429818197</v>
+        <v>-0.06466541440275153</v>
       </c>
       <c r="D11" t="n">
         <v>-98.65000000000001</v>
@@ -805,7 +805,7 @@
         <v>0.07800039756571303</v>
       </c>
       <c r="F11" t="n">
-        <v>0.120187020598195</v>
+        <v>0.1201870207543557</v>
       </c>
       <c r="G11" t="n">
         <v>-0.2609203572456653</v>
@@ -827,28 +827,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1216103512661446</v>
+        <v>-0.1216103515718095</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06885191044264169</v>
+        <v>-0.06885191059949601</v>
       </c>
       <c r="D12" t="n">
         <v>-76.63</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0574769194845578</v>
+        <v>0.05747691884073081</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1051061417559764</v>
+        <v>0.1051061416153215</v>
       </c>
       <c r="G12" t="n">
         <v>-0.1700871018202681</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.2532169736162024</v>
+        <v>-0.2532169728319308</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.02475867019249843</v>
+        <v>-0.02475867172082265</v>
       </c>
       <c r="J12" t="n">
         <v>0.1395790976423182</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.04510212681936188</v>
+        <v>-0.04510212689386769</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.09298737672598739</v>
+        <v>-0.092987376699845</v>
       </c>
       <c r="D15" t="n">
         <v>51.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1236797045004611</v>
+        <v>0.1236797044515019</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1080147510664048</v>
+        <v>0.1080147510201204</v>
       </c>
       <c r="G15" t="n">
         <v>-0.2418164209677623</v>
@@ -1269,19 +1269,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.000500002183127525</v>
+        <v>0.000500002169393737</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0003683207595542015</v>
+        <v>0.0003683207594925148</v>
       </c>
       <c r="D25" t="n">
         <v>35.75</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000430429736958244</v>
+        <v>0.000430429711344109</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0003931624025865012</v>
+        <v>0.0003931624028969876</v>
       </c>
       <c r="G25" t="n">
         <v>4.95025388774894e-05</v>
@@ -1290,7 +1290,7 @@
         <v>9.456502968818771e-06</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00114221891499884</v>
+        <v>0.0011422188463299</v>
       </c>
       <c r="J25" t="n">
         <v>0.00136639792280099</v>
@@ -1371,22 +1371,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.06075897205409854</v>
+        <v>-0.06075897212076162</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.08984968765258888</v>
+        <v>-0.08984968804401815</v>
       </c>
       <c r="D28" t="n">
         <v>32.38</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08589470445245173</v>
+        <v>0.08589470495792394</v>
       </c>
       <c r="F28" t="n">
-        <v>0.113023856477248</v>
+        <v>0.1130238561834489</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1615349825005978</v>
+        <v>-0.1615349836181849</v>
       </c>
       <c r="H28" t="n">
         <v>-0.2637837359583692</v>
@@ -1541,19 +1541,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9466475749652778</v>
+        <v>0.9466475743378604</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7449034763099789</v>
+        <v>0.7449034762054093</v>
       </c>
       <c r="D33" t="n">
         <v>27.08</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08703557349570556</v>
+        <v>0.08703557227380633</v>
       </c>
       <c r="F33" t="n">
-        <v>0.140989538562114</v>
+        <v>0.1409895386518086</v>
       </c>
       <c r="G33" t="n">
         <v>0.8695244674499218</v>
@@ -1562,7 +1562,7 @@
         <v>0.5333120893245857</v>
       </c>
       <c r="I33" t="n">
-        <v>1.082249423390941</v>
+        <v>1.082249420253854</v>
       </c>
       <c r="J33" t="n">
         <v>0.9678262217264426</v>
@@ -1575,31 +1575,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3610388180181791</v>
+        <v>0.3610388190459269</v>
       </c>
       <c r="C34" t="n">
-        <v>0.285228470261127</v>
+        <v>0.2852284698297776</v>
       </c>
       <c r="D34" t="n">
         <v>26.58</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05111483362110376</v>
+        <v>0.05111483660549457</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08210458920502581</v>
+        <v>0.08210458922414751</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2896451476569238</v>
+        <v>0.289645147264788</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1577897703177051</v>
+        <v>0.157789770513773</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4287465945351869</v>
+        <v>0.4287466034758836</v>
       </c>
       <c r="J34" t="n">
-        <v>0.41448213581584</v>
+        <v>0.4144821366001117</v>
       </c>
     </row>
     <row r="35">
@@ -1779,19 +1779,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.225950851900938</v>
+        <v>1.225950852528355</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9858156737266925</v>
+        <v>0.9858156741449708</v>
       </c>
       <c r="D40" t="n">
         <v>24.36</v>
       </c>
       <c r="E40" t="n">
-        <v>0.09974333527926545</v>
+        <v>0.0997433364223759</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1692285531251563</v>
+        <v>0.1692285527980881</v>
       </c>
       <c r="G40" t="n">
         <v>1.10909231350218</v>
@@ -1800,7 +1800,7 @@
         <v>0.7176826462933892</v>
       </c>
       <c r="I40" t="n">
-        <v>1.371331131771991</v>
+        <v>1.371331134909078</v>
       </c>
       <c r="J40" t="n">
         <v>1.24477728809181</v>
@@ -1813,31 +1813,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.885457756583266</v>
+        <v>1.885457755767624</v>
       </c>
       <c r="C41" t="n">
-        <v>1.519716562445095</v>
+        <v>1.519716560504023</v>
       </c>
       <c r="D41" t="n">
         <v>24.07</v>
       </c>
       <c r="E41" t="n">
-        <v>0.240769316125117</v>
+        <v>0.2407693118430993</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2147688733245381</v>
+        <v>0.2147688750532876</v>
       </c>
       <c r="G41" t="n">
         <v>1.613797000394418</v>
       </c>
       <c r="H41" t="n">
-        <v>1.212555646700294</v>
+        <v>1.212555643563208</v>
       </c>
       <c r="I41" t="n">
-        <v>2.221798747777939</v>
+        <v>2.221798743072309</v>
       </c>
       <c r="J41" t="n">
-        <v>1.994460891785198</v>
+        <v>1.994460894922285</v>
       </c>
     </row>
     <row r="42">
@@ -2119,28 +2119,28 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.7800950092330636</v>
+        <v>0.7800950102451761</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6651126977595452</v>
+        <v>0.6651126999685769</v>
       </c>
       <c r="D50" t="n">
         <v>17.29</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1161576495713317</v>
+        <v>0.1161576516872205</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1339101611550828</v>
+        <v>0.1339101603373213</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6756812464445829</v>
+        <v>0.6756812454642434</v>
       </c>
       <c r="H50" t="n">
         <v>0.4260296936293966</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9704685472932301</v>
+        <v>0.9704685504303167</v>
       </c>
       <c r="J50" t="n">
         <v>0.8490857699591863</v>
@@ -2153,31 +2153,31 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.006856570273262086</v>
+        <v>0.006856570492675382</v>
       </c>
       <c r="C51" t="n">
-        <v>0.005852236837049983</v>
+        <v>0.005852236593449104</v>
       </c>
       <c r="D51" t="n">
         <v>17.16</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0009694557668077748</v>
+        <v>0.0009694550303623207</v>
       </c>
       <c r="F51" t="n">
-        <v>0.001253775585347198</v>
+        <v>0.001253775339053748</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00546020768959402</v>
+        <v>0.00546020829975033</v>
       </c>
       <c r="H51" t="n">
         <v>0.00387861690582178</v>
       </c>
       <c r="I51" t="n">
-        <v>0.008147083197813669</v>
+        <v>0.008147081915131331</v>
       </c>
       <c r="J51" t="n">
-        <v>0.00783974370648784</v>
+        <v>0.00783974309121409</v>
       </c>
     </row>
     <row r="52">
@@ -2360,7 +2360,7 @@
         <v>0.2793032772329481</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2408953340430008</v>
+        <v>0.2408953338338617</v>
       </c>
       <c r="D57" t="n">
         <v>15.94</v>
@@ -2369,7 +2369,7 @@
         <v>0.03243790500995346</v>
       </c>
       <c r="F57" t="n">
-        <v>0.05807588627592847</v>
+        <v>0.05807588617732998</v>
       </c>
       <c r="G57" t="n">
         <v>0.2245869777459455</v>
@@ -2731,28 +2731,28 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.850184943834458</v>
+        <v>0.850184945731591</v>
       </c>
       <c r="C68" t="n">
-        <v>0.750976003111716</v>
+        <v>0.7509760019614509</v>
       </c>
       <c r="D68" t="n">
         <v>13.21</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06421219306280067</v>
+        <v>0.06421219512871712</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1042138328241398</v>
+        <v>0.1042138303333631</v>
       </c>
       <c r="G68" t="n">
-        <v>0.7582381381408164</v>
+        <v>0.7582381397093597</v>
       </c>
       <c r="H68" t="n">
         <v>0.575951243701734</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9136002844151778</v>
+        <v>0.9136002905284747</v>
       </c>
       <c r="J68" t="n">
         <v>0.9578600204304645</v>
@@ -2833,22 +2833,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.003423486364776327</v>
+        <v>0.003423486590646533</v>
       </c>
       <c r="C71" t="n">
-        <v>0.003875616587637391</v>
+        <v>0.003875616715553275</v>
       </c>
       <c r="D71" t="n">
         <v>-11.67</v>
       </c>
       <c r="E71" t="n">
-        <v>0.001033938959078033</v>
+        <v>0.001033938882930988</v>
       </c>
       <c r="F71" t="n">
-        <v>0.001445137354998257</v>
+        <v>0.001445137450028391</v>
       </c>
       <c r="G71" t="n">
-        <v>0.002155416063453316</v>
+        <v>0.002155416278632539</v>
       </c>
       <c r="H71" t="n">
         <v>0.002087839889182081</v>
@@ -2857,7 +2857,7 @@
         <v>0.005011778465559184</v>
       </c>
       <c r="J71" t="n">
-        <v>0.006150054665746299</v>
+        <v>0.006150055108903509</v>
       </c>
     </row>
     <row r="72">
@@ -2938,7 +2938,7 @@
         <v>0.7301967409400925</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8186238709126451</v>
+        <v>0.8186238711217843</v>
       </c>
       <c r="D74" t="n">
         <v>-10.8</v>
@@ -2947,7 +2947,7 @@
         <v>0.06567227020371713</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1629672442006879</v>
+        <v>0.1629672441750344</v>
       </c>
       <c r="G74" t="n">
         <v>0.6519040509294241</v>
@@ -2969,31 +2969,31 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>36.44759439589082</v>
+        <v>36.44759532802716</v>
       </c>
       <c r="C75" t="n">
-        <v>40.51549468379165</v>
+        <v>40.5154952674289</v>
       </c>
       <c r="D75" t="n">
         <v>-10.04</v>
       </c>
       <c r="E75" t="n">
-        <v>3.55756264355464</v>
+        <v>3.557560025307838</v>
       </c>
       <c r="F75" t="n">
-        <v>5.536149198116047</v>
+        <v>5.536150622982309</v>
       </c>
       <c r="G75" t="n">
-        <v>32.45047475594875</v>
+        <v>32.45047952257474</v>
       </c>
       <c r="H75" t="n">
         <v>31.37783674217732</v>
       </c>
       <c r="I75" t="n">
-        <v>41.23666951894224</v>
+        <v>41.23666658852213</v>
       </c>
       <c r="J75" t="n">
-        <v>51.65064639136905</v>
+        <v>51.65065026661706</v>
       </c>
     </row>
     <row r="76">
@@ -3003,22 +3003,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.03775138491182302</v>
+        <v>0.03775138788165746</v>
       </c>
       <c r="C76" t="n">
-        <v>0.03434313436275037</v>
+        <v>0.03434313588119599</v>
       </c>
       <c r="D76" t="n">
         <v>9.92</v>
       </c>
       <c r="E76" t="n">
-        <v>0.004457676569200562</v>
+        <v>0.004457676325858494</v>
       </c>
       <c r="F76" t="n">
-        <v>0.007278253744809201</v>
+        <v>0.00727825436092236</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03265583869254235</v>
+        <v>0.03265584105312234</v>
       </c>
       <c r="H76" t="n">
         <v>0.02160282836240881</v>
@@ -3027,7 +3027,7 @@
         <v>0.04277681817813796</v>
       </c>
       <c r="J76" t="n">
-        <v>0.04548302818747128</v>
+        <v>0.04548303328733393</v>
       </c>
     </row>
     <row r="77">
@@ -3037,31 +3037,31 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.490647574352225</v>
+        <v>1.490647572313923</v>
       </c>
       <c r="C77" t="n">
-        <v>1.653124848096386</v>
+        <v>1.653124844175028</v>
       </c>
       <c r="D77" t="n">
         <v>-9.83</v>
       </c>
       <c r="E77" t="n">
-        <v>0.136765753419602</v>
+        <v>0.1367657648213718</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2347007737318394</v>
+        <v>0.2347007733927924</v>
       </c>
       <c r="G77" t="n">
-        <v>1.387189238087127</v>
+        <v>1.387189216127521</v>
       </c>
       <c r="H77" t="n">
-        <v>1.269234356225321</v>
+        <v>1.269234348382605</v>
       </c>
       <c r="I77" t="n">
-        <v>1.719836102169938</v>
+        <v>1.719836120051332</v>
       </c>
       <c r="J77" t="n">
-        <v>2.156844642209379</v>
+        <v>2.156844648483553</v>
       </c>
     </row>
     <row r="78">
@@ -3139,19 +3139,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.7196108666150837</v>
+        <v>0.7196108668033089</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7952452056926855</v>
+        <v>0.7952452061109637</v>
       </c>
       <c r="D80" t="n">
         <v>-9.51</v>
       </c>
       <c r="E80" t="n">
-        <v>0.07828850905685485</v>
+        <v>0.07828850785732529</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07518992096441038</v>
+        <v>0.07518991991548234</v>
       </c>
       <c r="G80" t="n">
         <v>0.6212397939883746</v>
@@ -3173,19 +3173,19 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.09680065646207209</v>
+        <v>0.09680065878118085</v>
       </c>
       <c r="C81" t="n">
-        <v>0.08913049031385641</v>
+        <v>0.08913049188940367</v>
       </c>
       <c r="D81" t="n">
         <v>8.609999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.006071275726110386</v>
+        <v>0.006071281480790874</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00890889917906651</v>
+        <v>0.008908903176976436</v>
       </c>
       <c r="G81" t="n">
         <v>0.08963674592880279</v>
@@ -3194,10 +3194,10 @@
         <v>0.07968468557704579</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1045794049208572</v>
+        <v>0.1045794238523573</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1096355647631078</v>
+        <v>0.1096355738673973</v>
       </c>
     </row>
     <row r="82">
@@ -3241,31 +3241,31 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.006501736983012226</v>
+        <v>0.0065017371125043</v>
       </c>
       <c r="C83" t="n">
-        <v>0.006003089292247284</v>
+        <v>0.006003089136076251</v>
       </c>
       <c r="D83" t="n">
         <v>8.31</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001147375688720056</v>
+        <v>0.001147375500795676</v>
       </c>
       <c r="F83" t="n">
-        <v>0.001478145674955995</v>
+        <v>0.001478145526007179</v>
       </c>
       <c r="G83" t="n">
-        <v>0.00529941118017484</v>
+        <v>0.0052994117958458</v>
       </c>
       <c r="H83" t="n">
-        <v>0.00409146186697593</v>
+        <v>0.00409146218192782</v>
       </c>
       <c r="I83" t="n">
         <v>0.00840340071867445</v>
       </c>
       <c r="J83" t="n">
-        <v>0.009895607136476881</v>
+        <v>0.009895606503227</v>
       </c>
     </row>
     <row r="84">
@@ -3346,7 +3346,7 @@
         <v>0.9843507775188737</v>
       </c>
       <c r="C86" t="n">
-        <v>1.067911184369995</v>
+        <v>1.067911184579134</v>
       </c>
       <c r="D86" t="n">
         <v>-7.82</v>
@@ -3355,7 +3355,7 @@
         <v>0.07440129661959237</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1867974240416005</v>
+        <v>0.1867974239868854</v>
       </c>
       <c r="G86" t="n">
         <v>0.9204954932897519</v>
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.5280559633390864</v>
+        <v>0.5280559633390866</v>
       </c>
       <c r="C87" t="n">
         <v>0.4906406770489223</v>
@@ -3386,7 +3386,7 @@
         <v>7.63</v>
       </c>
       <c r="E87" t="n">
-        <v>0.04402111055766011</v>
+        <v>0.04402111055766014</v>
       </c>
       <c r="F87" t="n">
         <v>0.03811647476950648</v>
@@ -3445,28 +3445,28 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4.501426548335315</v>
+        <v>4.501427303513627</v>
       </c>
       <c r="C89" t="n">
-        <v>4.215045559844142</v>
+        <v>4.21504563824839</v>
       </c>
       <c r="D89" t="n">
         <v>6.79</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6050982498067208</v>
+        <v>0.6050981297355066</v>
       </c>
       <c r="F89" t="n">
-        <v>0.6869105449265189</v>
+        <v>0.6869106651129807</v>
       </c>
       <c r="G89" t="n">
-        <v>3.595384705509059</v>
+        <v>3.595385014593777</v>
       </c>
       <c r="H89" t="n">
         <v>3.134818710917628</v>
       </c>
       <c r="I89" t="n">
-        <v>5.221403327866831</v>
+        <v>5.221402901900983</v>
       </c>
       <c r="J89" t="n">
         <v>5.47068589573376</v>
@@ -3581,31 +3581,31 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>14.21193151524858</v>
+        <v>14.21193193022227</v>
       </c>
       <c r="C93" t="n">
-        <v>15.21515511230803</v>
+        <v>15.21515566653558</v>
       </c>
       <c r="D93" t="n">
         <v>-6.59</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5738762120558345</v>
+        <v>0.573877363025592</v>
       </c>
       <c r="F93" t="n">
-        <v>1.131839809348676</v>
+        <v>1.131839775557831</v>
       </c>
       <c r="G93" t="n">
-        <v>13.53322127058699</v>
+        <v>13.53321962098818</v>
       </c>
       <c r="H93" t="n">
         <v>13.69095069774683</v>
       </c>
       <c r="I93" t="n">
-        <v>14.8644232498972</v>
+        <v>14.86442485608553</v>
       </c>
       <c r="J93" t="n">
-        <v>17.41738675820707</v>
+        <v>17.41738799124053</v>
       </c>
     </row>
     <row r="94">
@@ -3785,22 +3785,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>16.02455456096668</v>
+        <v>16.02455400641893</v>
       </c>
       <c r="C99" t="n">
-        <v>17.06601614407474</v>
+        <v>17.06601538300316</v>
       </c>
       <c r="D99" t="n">
         <v>-6.1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.367986201122927</v>
+        <v>0.3679869740895869</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6692410932295544</v>
+        <v>0.6692407525107007</v>
       </c>
       <c r="G99" t="n">
-        <v>15.64516813858696</v>
+        <v>15.64516920006793</v>
       </c>
       <c r="H99" t="n">
         <v>16.00555390436292</v>
@@ -3921,28 +3921,28 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>16.70638249817107</v>
+        <v>16.70638352021536</v>
       </c>
       <c r="C103" t="n">
-        <v>17.76363449633003</v>
+        <v>17.76363409744819</v>
       </c>
       <c r="D103" t="n">
         <v>-5.95</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4953036320434402</v>
+        <v>0.4953022547067905</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5962145714969198</v>
+        <v>0.5962149330973507</v>
       </c>
       <c r="G103" t="n">
-        <v>16.33402506510417</v>
+        <v>16.33402807918596</v>
       </c>
       <c r="H103" t="n">
-        <v>16.95633980277535</v>
+        <v>16.95633809549825</v>
       </c>
       <c r="I103" t="n">
-        <v>17.57676451187335</v>
+        <v>17.57676322353232</v>
       </c>
       <c r="J103" t="n">
         <v>19.05966670459143</v>
@@ -3989,25 +3989,25 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.0511448379731118</v>
+        <v>0.05114483694982402</v>
       </c>
       <c r="C105" t="n">
-        <v>0.04832256401793041</v>
+        <v>0.04832256519065113</v>
       </c>
       <c r="D105" t="n">
         <v>5.84</v>
       </c>
       <c r="E105" t="n">
-        <v>0.03041962453818104</v>
+        <v>0.03041962561246319</v>
       </c>
       <c r="F105" t="n">
-        <v>0.01477313501895954</v>
+        <v>0.01477313530525269</v>
       </c>
       <c r="G105" t="n">
-        <v>0.026223013275548</v>
+        <v>0.0262230117070047</v>
       </c>
       <c r="H105" t="n">
-        <v>0.024411012729009</v>
+        <v>0.0244110147158305</v>
       </c>
       <c r="I105" t="n">
         <v>0.103593039512634</v>
@@ -4023,19 +4023,19 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.3170983719385472</v>
+        <v>0.3170983720270228</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3002421885009921</v>
+        <v>0.300242188435636</v>
       </c>
       <c r="D106" t="n">
         <v>5.61</v>
       </c>
       <c r="E106" t="n">
-        <v>0.05560177141060056</v>
+        <v>0.05560177152622479</v>
       </c>
       <c r="F106" t="n">
-        <v>0.04719994524356317</v>
+        <v>0.04719994550476071</v>
       </c>
       <c r="G106" t="n">
         <v>0.224978779323208</v>
@@ -4044,7 +4044,7 @@
         <v>0.2093672902862492</v>
       </c>
       <c r="I106" t="n">
-        <v>0.3752288380172104</v>
+        <v>0.3752288384595886</v>
       </c>
       <c r="J106" t="n">
         <v>0.3974381569576891</v>
@@ -4057,22 +4057,22 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0874990983574801</v>
+        <v>0.08749909829980226</v>
       </c>
       <c r="C107" t="n">
-        <v>0.09235418542419276</v>
+        <v>0.09235418672231767</v>
       </c>
       <c r="D107" t="n">
         <v>-5.26</v>
       </c>
       <c r="E107" t="n">
-        <v>0.005225945120850057</v>
+        <v>0.005225940654013054</v>
       </c>
       <c r="F107" t="n">
-        <v>0.006975185324070747</v>
+        <v>0.006975184001383269</v>
       </c>
       <c r="G107" t="n">
-        <v>0.07924795256018902</v>
+        <v>0.07924796098115429</v>
       </c>
       <c r="H107" t="n">
         <v>0.07410782653015929</v>
@@ -4081,7 +4081,7 @@
         <v>0.09279951453208923</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1042282168203207</v>
+        <v>0.1042282088564433</v>
       </c>
     </row>
     <row r="108">
@@ -4295,19 +4295,19 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.00392857856584772</v>
+        <v>0.003928578658437458</v>
       </c>
       <c r="C114" t="n">
-        <v>0.003754365828158627</v>
+        <v>0.003754365756946927</v>
       </c>
       <c r="D114" t="n">
         <v>4.64</v>
       </c>
       <c r="E114" t="n">
-        <v>0.002036244426691476</v>
+        <v>0.002036244623774794</v>
       </c>
       <c r="F114" t="n">
-        <v>0.001305665143806167</v>
+        <v>0.001305665051956118</v>
       </c>
       <c r="G114" t="n">
         <v>0.00229575579816645</v>
@@ -4316,10 +4316,10 @@
         <v>0.00183367956252325</v>
       </c>
       <c r="I114" t="n">
-        <v>0.00739600218615486</v>
+        <v>0.00739600264910355</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0067135806477398</v>
+        <v>0.00671358021027451</v>
       </c>
     </row>
     <row r="115">
@@ -4329,31 +4329,31 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.03641254975072916</v>
+        <v>0.036412549911055</v>
       </c>
       <c r="C115" t="n">
-        <v>0.03481062033319957</v>
+        <v>0.03481061951156297</v>
       </c>
       <c r="D115" t="n">
         <v>4.6</v>
       </c>
       <c r="E115" t="n">
-        <v>0.003043799772177082</v>
+        <v>0.003043800693210162</v>
       </c>
       <c r="F115" t="n">
-        <v>0.007232931742554966</v>
+        <v>0.007232932610517467</v>
       </c>
       <c r="G115" t="n">
         <v>0.0312757101672435</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0229467391967773</v>
+        <v>0.0229467377066612</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0394388521221322</v>
+        <v>0.0394388565994764</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0470627094137258</v>
+        <v>0.0470627047158227</v>
       </c>
     </row>
     <row r="116">
@@ -4431,22 +4431,22 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.04482171908343509</v>
+        <v>0.04482172076277231</v>
       </c>
       <c r="C118" t="n">
-        <v>0.04686307953195911</v>
+        <v>0.04686307831179256</v>
       </c>
       <c r="D118" t="n">
         <v>-4.36</v>
       </c>
       <c r="E118" t="n">
-        <v>0.008503332137877004</v>
+        <v>0.008503331216176803</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0264044294206497</v>
+        <v>0.02640442659955462</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03858673572540283</v>
+        <v>0.03858674234814114</v>
       </c>
       <c r="H118" t="n">
         <v>0.02033099125732075</v>
@@ -4455,7 +4455,7 @@
         <v>0.05953920971263538</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1251534652709961</v>
+        <v>0.1251534557342529</v>
       </c>
     </row>
     <row r="119">
@@ -4703,28 +4703,28 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>14.50625698034959</v>
+        <v>14.50625656503193</v>
       </c>
       <c r="C126" t="n">
-        <v>15.02167262057524</v>
+        <v>15.02167263639094</v>
       </c>
       <c r="D126" t="n">
         <v>-3.43</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4832195232149785</v>
+        <v>0.4832177210403088</v>
       </c>
       <c r="F126" t="n">
-        <v>0.837002474388625</v>
+        <v>0.8370020331682047</v>
       </c>
       <c r="G126" t="n">
-        <v>13.89280639648437</v>
+        <v>13.89280883789062</v>
       </c>
       <c r="H126" t="n">
         <v>13.23871744791667</v>
       </c>
       <c r="I126" t="n">
-        <v>15.02064866286058</v>
+        <v>15.02064631535457</v>
       </c>
       <c r="J126" t="n">
         <v>16.39502766927083</v>
@@ -5386,28 +5386,28 @@
         <v>2.655971397742928</v>
       </c>
       <c r="C146" t="n">
-        <v>2.717345774791397</v>
+        <v>2.717345774791396</v>
       </c>
       <c r="D146" t="n">
         <v>-2.26</v>
       </c>
       <c r="E146" t="n">
-        <v>0.2353304569602701</v>
+        <v>0.2353304569602702</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1997077362976611</v>
+        <v>0.1997077362976615</v>
       </c>
       <c r="G146" t="n">
         <v>2.298701671575278</v>
       </c>
       <c r="H146" t="n">
-        <v>2.41550781655592</v>
+        <v>2.415507816555919</v>
       </c>
       <c r="I146" t="n">
         <v>2.944542253870007</v>
       </c>
       <c r="J146" t="n">
-        <v>3.289931702396463</v>
+        <v>3.289931702396464</v>
       </c>
     </row>
     <row r="147">
@@ -5451,25 +5451,25 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>17.72822302406508</v>
+        <v>17.72822191552186</v>
       </c>
       <c r="C148" t="n">
-        <v>17.37566907091193</v>
+        <v>17.37566881836244</v>
       </c>
       <c r="D148" t="n">
         <v>2.03</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4690921882664102</v>
+        <v>0.4690936425564318</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5292008213790264</v>
+        <v>0.5292008313084423</v>
       </c>
       <c r="G148" t="n">
-        <v>17.11269600509752</v>
+        <v>17.11268907912234</v>
       </c>
       <c r="H148" t="n">
-        <v>16.31177463421243</v>
+        <v>16.31177181177746</v>
       </c>
       <c r="I148" t="n">
         <v>18.3592481737013</v>
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.2541034555716337</v>
+        <v>0.254103455257925</v>
       </c>
       <c r="C153" t="n">
         <v>0.2492873114051722</v>
@@ -5630,13 +5630,13 @@
         <v>1.93</v>
       </c>
       <c r="E153" t="n">
-        <v>0.04959049710409204</v>
+        <v>0.04959049747219035</v>
       </c>
       <c r="F153" t="n">
         <v>0.06267221869294283</v>
       </c>
       <c r="G153" t="n">
-        <v>0.2075528034474701</v>
+        <v>0.2075528018789268</v>
       </c>
       <c r="H153" t="n">
         <v>0.1630124762458237</v>
@@ -5689,28 +5689,28 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.7022410764334053</v>
+        <v>0.7022410791940414</v>
       </c>
       <c r="C155" t="n">
-        <v>0.690954163409116</v>
+        <v>0.6909541627294139</v>
       </c>
       <c r="D155" t="n">
         <v>1.63</v>
       </c>
       <c r="E155" t="n">
-        <v>0.09861942829944811</v>
+        <v>0.09861942803132935</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1072894715451349</v>
+        <v>0.1072894711815208</v>
       </c>
       <c r="G155" t="n">
-        <v>0.5794474249215502</v>
+        <v>0.5794474264900935</v>
       </c>
       <c r="H155" t="n">
-        <v>0.5376927927381506</v>
+        <v>0.537692791953879</v>
       </c>
       <c r="I155" t="n">
-        <v>0.8064807258546353</v>
+        <v>0.8064807318150997</v>
       </c>
       <c r="J155" t="n">
         <v>0.9274986620600286</v>
@@ -5723,28 +5723,28 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.8784830393248502</v>
+        <v>0.8784830083744515</v>
       </c>
       <c r="C156" t="n">
-        <v>0.8664310149881469</v>
+        <v>0.866431036077535</v>
       </c>
       <c r="D156" t="n">
         <v>1.39</v>
       </c>
       <c r="E156" t="n">
-        <v>0.008085466446094616</v>
+        <v>0.008085369757290328</v>
       </c>
       <c r="F156" t="n">
-        <v>0.01170309735768977</v>
+        <v>0.01170305109347075</v>
       </c>
       <c r="G156" t="n">
-        <v>0.8676592161457484</v>
+        <v>0.8676593381224965</v>
       </c>
       <c r="H156" t="n">
         <v>0.850719371937628</v>
       </c>
       <c r="I156" t="n">
-        <v>0.8856149689887466</v>
+        <v>0.8856148733844644</v>
       </c>
       <c r="J156" t="n">
         <v>0.8903654943554297</v>
@@ -5825,28 +5825,28 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>16.87384717423341</v>
+        <v>16.87384575661823</v>
       </c>
       <c r="C159" t="n">
-        <v>16.71710245650625</v>
+        <v>16.71710260174775</v>
       </c>
       <c r="D159" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3744287002617091</v>
+        <v>0.3744300243647739</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4678017887466962</v>
+        <v>0.4678018236453819</v>
       </c>
       <c r="G159" t="n">
-        <v>16.45656840006511</v>
+        <v>16.45656458536784</v>
       </c>
       <c r="H159" t="n">
-        <v>15.74032364031079</v>
+        <v>15.74032185500457</v>
       </c>
       <c r="I159" t="n">
-        <v>17.27685978028422</v>
+        <v>17.27685870240066</v>
       </c>
       <c r="J159" t="n">
         <v>17.52434113737825</v>
@@ -5927,31 +5927,31 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>44.88455418487872</v>
+        <v>44.88456195388186</v>
       </c>
       <c r="C162" t="n">
-        <v>44.62175288188079</v>
+        <v>44.62175357685818</v>
       </c>
       <c r="D162" t="n">
         <v>0.59</v>
       </c>
       <c r="E162" t="n">
-        <v>1.571116680595976</v>
+        <v>1.571120135487907</v>
       </c>
       <c r="F162" t="n">
-        <v>2.132465032829554</v>
+        <v>2.132466292649171</v>
       </c>
       <c r="G162" t="n">
-        <v>43.1928766634981</v>
+        <v>43.1928803766635</v>
       </c>
       <c r="H162" t="n">
-        <v>41.16100011515431</v>
+        <v>41.16099651658222</v>
       </c>
       <c r="I162" t="n">
-        <v>46.75891302244582</v>
+        <v>46.75893720975233</v>
       </c>
       <c r="J162" t="n">
-        <v>49.34318302309142</v>
+        <v>49.34318670475966</v>
       </c>
     </row>
     <row r="163">
@@ -6100,7 +6100,7 @@
         <v>0.0003877631738384049</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0003868976719940723</v>
+        <v>0.0003868976801618894</v>
       </c>
       <c r="D167" t="n">
         <v>0.22</v>
@@ -6109,7 +6109,7 @@
         <v>0.0003588211237080705</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0004145253046901626</v>
+        <v>0.000414525318309287</v>
       </c>
       <c r="G167" t="n">
         <v>4.256489084547167e-05</v>
